--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3324225.811303872</v>
+        <v>3317208.79641216</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>857601.5930742613</v>
+        <v>527944.0659285909</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8468878.82831051</v>
+        <v>8468878.828310512</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>156.9362650270477</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>100.021167967277</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498675</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -794,7 +794,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586857</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>52.7148149200819</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>280.3120030319623</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>159.3199338524832</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>121.2699779972375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>174.9442930587127</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1141,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1183,25 +1183,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>163.8950372953901</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>376.3066325868036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>122.3623168480191</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>16.96638753767972</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>175.8789209817675</v>
       </c>
     </row>
     <row r="14">
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>163.7342318885287</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -1785,7 +1785,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>170.4824349897576</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>224.3295762725736</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>80.70734689294495</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>200.4997564950149</v>
+        <v>254.6368400836692</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>95.17577023345845</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>181.2033352018341</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>283.3580910135614</v>
       </c>
       <c r="V34" t="n">
-        <v>73.41086324632408</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>149.3418364783668</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>26.15603929387831</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,16 +3720,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>213.4187794236015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>97.84870229890431</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>7.219312653648087</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>5.562624396424693</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1206.080506218543</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="C2" t="n">
-        <v>837.1179892781315</v>
+        <v>1116.929889604774</v>
       </c>
       <c r="D2" t="n">
-        <v>478.8522906713811</v>
+        <v>758.6641909980233</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>372.875938399779</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>365.9304376505756</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,10 +4348,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4360,22 +4360,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2322.454251725549</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>1969.685596455435</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X2" t="n">
-        <v>1596.219838194355</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y2" t="n">
-        <v>1206.080506218543</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="3">
@@ -4406,40 +4406,40 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.0596212327002</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V4" t="n">
-        <v>385.7080860629399</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W4" t="n">
-        <v>385.7080860629399</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X4" t="n">
-        <v>385.7080860629399</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y4" t="n">
-        <v>385.7080860629399</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1524.301830724558</v>
+        <v>962.9693282917585</v>
       </c>
       <c r="C5" t="n">
-        <v>1524.301830724558</v>
+        <v>594.0068113513469</v>
       </c>
       <c r="D5" t="n">
-        <v>1166.036132117808</v>
+        <v>235.7411127445964</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>235.7411127445964</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>228.7956119953929</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>214.8722079339838</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224079</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2267.209817970484</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1914.44116270037</v>
+        <v>2113.174258592772</v>
       </c>
       <c r="X5" t="n">
-        <v>1914.44116270037</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y5" t="n">
-        <v>1524.301830724558</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="6">
@@ -4643,16 +4643,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>350.9495687306105</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C7" t="n">
-        <v>350.9495687306105</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
         <v>200.8329293182748</v>
@@ -4713,19 +4713,19 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S7" t="n">
-        <v>605.6340569364974</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T7" t="n">
-        <v>605.6340569364974</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U7" t="n">
-        <v>605.6340569364974</v>
+        <v>551.4175770764215</v>
       </c>
       <c r="V7" t="n">
-        <v>350.9495687306105</v>
+        <v>551.4175770764215</v>
       </c>
       <c r="W7" t="n">
-        <v>350.9495687306105</v>
+        <v>551.4175770764215</v>
       </c>
       <c r="X7" t="n">
-        <v>350.9495687306105</v>
+        <v>551.4175770764215</v>
       </c>
       <c r="Y7" t="n">
-        <v>350.9495687306105</v>
+        <v>551.4175770764215</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1359.546482223453</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C8" t="n">
-        <v>990.5839652830418</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>632.3182666762914</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="W8" t="n">
-        <v>1739.654191907093</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="X8" t="n">
-        <v>1739.654191907093</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="Y8" t="n">
-        <v>1359.546482223453</v>
+        <v>2476.569858826099</v>
       </c>
     </row>
     <row r="9">
@@ -4895,10 +4895,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>177.5412816668484</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>359.1897464970881</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5041,10 +5041,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5068,25 +5068,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C12" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D12" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>2525.058920465858</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L12" t="n">
-        <v>2525.058920465858</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M12" t="n">
-        <v>3293.427066858319</v>
+        <v>1387.227105931296</v>
       </c>
       <c r="N12" t="n">
-        <v>4097.838645122471</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O12" t="n">
-        <v>4767.302406425129</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P12" t="n">
-        <v>4773.721670557069</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S12" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T12" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U12" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W12" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X12" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y12" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>713.5778697504956</v>
+        <v>545.8631874464246</v>
       </c>
       <c r="C13" t="n">
-        <v>544.6416868225887</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D13" t="n">
-        <v>394.5250474102529</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5238,13 +5238,13 @@
         <v>1133.156678913841</v>
       </c>
       <c r="W13" t="n">
-        <v>1116.018913724265</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="X13" t="n">
-        <v>1116.018913724265</v>
+        <v>905.1671280158234</v>
       </c>
       <c r="Y13" t="n">
-        <v>895.2263345807353</v>
+        <v>727.5116522766643</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,31 +5263,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5296,10 +5296,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L15" t="n">
-        <v>738.0704661731477</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M15" t="n">
-        <v>1058.405785702849</v>
+        <v>865.5852378527472</v>
       </c>
       <c r="N15" t="n">
-        <v>1402.926441340468</v>
+        <v>1669.996816116898</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2339.460577419557</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2522.104055032908</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>881.753191430675</v>
+        <v>696.2811958984813</v>
       </c>
       <c r="C16" t="n">
-        <v>712.8170085027681</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D16" t="n">
-        <v>562.7003690904323</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E16" t="n">
-        <v>562.7003690904323</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5466,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1275.130855347408</v>
+        <v>1326.711790770268</v>
       </c>
       <c r="W16" t="n">
-        <v>1275.130855347408</v>
+        <v>1326.711790770268</v>
       </c>
       <c r="X16" t="n">
-        <v>1047.141304449391</v>
+        <v>1098.722239872251</v>
       </c>
       <c r="Y16" t="n">
-        <v>1047.141304449391</v>
+        <v>877.929660728721</v>
       </c>
     </row>
     <row r="17">
@@ -5497,37 +5497,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>651.6131089777116</v>
+        <v>334.2881267578673</v>
       </c>
       <c r="L18" t="n">
-        <v>1265.5101787346</v>
+        <v>334.2881267578673</v>
       </c>
       <c r="M18" t="n">
-        <v>2033.878325127062</v>
+        <v>334.2881267578673</v>
       </c>
       <c r="N18" t="n">
-        <v>2033.878325127062</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O18" t="n">
-        <v>2033.878325127062</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5706,19 +5706,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>820.5263570570736</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>820.5263570570736</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>593.9308254686154</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>593.9308254686154</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5773,13 +5773,13 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5834,25 +5834,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L21" t="n">
-        <v>1122.004430061687</v>
+        <v>802.0403666355641</v>
       </c>
       <c r="M21" t="n">
-        <v>1442.339749591389</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N21" t="n">
-        <v>1548.780040143415</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>657.1994242851239</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>657.1994242851239</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1128.265059152324</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>838.8478891153636</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>838.8478891153636</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>838.8478891153636</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6071,25 +6071,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L24" t="n">
-        <v>1122.004430061687</v>
+        <v>802.0403666355641</v>
       </c>
       <c r="M24" t="n">
-        <v>1442.339749591389</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N24" t="n">
-        <v>2069.080661879162</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O24" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>359.1696912903951</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C25" t="n">
-        <v>359.1696912903951</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D25" t="n">
-        <v>359.1696912903951</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E25" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6177,22 +6177,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>964.135741824786</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>761.6107352641649</v>
+        <v>930.7122276578364</v>
       </c>
       <c r="V25" t="n">
-        <v>761.6107352641649</v>
+        <v>930.7122276578364</v>
       </c>
       <c r="W25" t="n">
-        <v>761.6107352641649</v>
+        <v>641.2950576208757</v>
       </c>
       <c r="X25" t="n">
-        <v>761.6107352641649</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="Y25" t="n">
-        <v>540.8181561206347</v>
+        <v>413.3055067228584</v>
       </c>
     </row>
     <row r="26">
@@ -6217,19 +6217,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,7 +6244,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6305,22 +6305,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>1163.495507227045</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>1163.495507227045</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
-        <v>1854.519469556429</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>619.9540936663861</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>619.9540936663861</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>619.9540936663861</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1164.055751909234</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>909.3712637033467</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>619.9540936663861</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>619.9540936663861</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>619.9540936663861</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,10 +6448,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6481,10 +6481,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6545,22 +6545,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>231.2161723158713</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>461.1792781842205</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>1229.547424576682</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
-        <v>1559.410052240715</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4241.487948057122</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>4072.551765129214</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>4072.551765129214</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3924.638671546821</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3777.748724048911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>4860.854573014292</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>4606.170084808406</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>4423.136412887361</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>4423.136412887361</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>4423.136412887361</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6712,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6782,22 +6782,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>246.2867756623457</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>860.1838454192343</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>1180.519164948936</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>1984.930743213087</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>824.3515998808206</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C34" t="n">
-        <v>824.3515998808206</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1187.92115703528</v>
+        <v>1212.69597660481</v>
       </c>
       <c r="V34" t="n">
-        <v>1113.768769917781</v>
+        <v>958.0114883989231</v>
       </c>
       <c r="W34" t="n">
-        <v>824.3515998808206</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="X34" t="n">
-        <v>824.3515998808206</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y34" t="n">
-        <v>824.3515998808206</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="35">
@@ -6916,10 +6916,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,16 +6931,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,31 +6955,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>674.4285624571609</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>1308.400016916764</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
-        <v>2112.811595180915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>2112.811595180915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3756.895681291723</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C37" t="n">
-        <v>3756.895681291723</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D37" t="n">
-        <v>3756.895681291723</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E37" t="n">
-        <v>3756.895681291723</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F37" t="n">
-        <v>3610.005733793813</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916675</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>4749.779469576118</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>4749.779469576118</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U37" t="n">
-        <v>4749.779469576118</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V37" t="n">
-        <v>4495.094981370231</v>
+        <v>648.5868613273558</v>
       </c>
       <c r="W37" t="n">
-        <v>4205.67781133327</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="X37" t="n">
-        <v>3977.688260435253</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y37" t="n">
-        <v>3756.895681291723</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="38">
@@ -7162,43 +7162,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>1222.010242114294</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N39" t="n">
-        <v>1566.530897751912</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3904.376443449035</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>3904.376443449035</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>3904.376443449035</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>3756.463349866642</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014292</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T40" t="n">
-        <v>4637.069157803799</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>4347.940519017357</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>4347.940519017357</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>4347.940519017357</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>4119.950968119339</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>3904.376443449035</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7411,7 +7411,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514082</v>
@@ -7423,16 +7423,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7490,22 +7490,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>2161.38996254409</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>545.8631874464246</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1400.079197528706</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1400.079197528706</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1176.293782318212</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1176.293782318212</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1176.293782318212</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>1176.293782318212</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>948.3042314201945</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>727.5116522766643</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514082</v>
@@ -7675,25 +7675,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7730,25 +7730,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>836.4717212750119</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>836.4717212750119</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>1180.99237691263</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>523.8169520164281</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="C46" t="n">
-        <v>523.8169520164281</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="D46" t="n">
-        <v>523.8169520164281</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="E46" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U46" t="n">
-        <v>1075.21084526296</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V46" t="n">
-        <v>820.5263570570736</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W46" t="n">
-        <v>531.109187020113</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X46" t="n">
-        <v>531.109187020113</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="Y46" t="n">
-        <v>531.109187020113</v>
+        <v>102.8359039819269</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8786,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9020,7 +9020,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>126.9666260257702</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9245,19 +9245,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>241.4193244070743</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,16 +9491,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9728,16 +9728,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>299.8770551754953</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9962,16 +9962,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10202,19 +10202,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10442,13 +10442,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>292.6344832636618</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10682,10 +10682,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10916,16 +10916,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>259.7999198684672</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11150,19 +11150,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>237.095433232403</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11384,19 +11384,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.5566107989113</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>42.7057323703273</v>
       </c>
     </row>
     <row r="14">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.09774829340856</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>81.65520833407035</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23901,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23946,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.38007911646352</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,22 +24177,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>171.4302964308831</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,22 +24417,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>85.73759590356244</v>
+        <v>31.60051231490817</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>51.25819241311072</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,22 +24888,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>105.319663134757</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>2.87926138501598</v>
       </c>
       <c r="V34" t="n">
-        <v>178.7267800775039</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>17.15173198501083</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>225.9816040299497</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25557,16 +25557,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>5.165873928493312</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>12.11565010488847</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>172.6126675282892</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>140.8713382501445</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147617</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147616</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147616</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147616</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147614</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147616</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147616</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>723403.7605147618</v>
+        <v>723403.7605147616</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147617</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.460138033</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
+        <v>645197.9485672191</v>
+      </c>
+      <c r="F2" t="n">
         <v>645197.9485672192</v>
       </c>
-      <c r="F2" t="n">
-        <v>645197.9485672198</v>
-      </c>
       <c r="G2" t="n">
-        <v>645197.9485672197</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="H2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672186</v>
       </c>
       <c r="I2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672192</v>
       </c>
       <c r="J2" t="n">
         <v>645197.9485672193</v>
       </c>
       <c r="K2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="L2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="M2" t="n">
+        <v>645197.9485672191</v>
+      </c>
+      <c r="N2" t="n">
+        <v>645197.948567219</v>
+      </c>
+      <c r="O2" t="n">
         <v>645197.9485672192</v>
       </c>
-      <c r="N2" t="n">
-        <v>645197.9485672197</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645197.9485672193</v>
-      </c>
       <c r="P2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672191</v>
       </c>
     </row>
     <row r="3">
@@ -26420,16 +26420,16 @@
         <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905759104</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
@@ -26441,25 +26441,25 @@
         <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905757959</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="P4" t="n">
         <v>787.7936905758695</v>
-      </c>
-      <c r="P4" t="n">
-        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26484,22 +26484,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134526.63632054</v>
+        <v>-134526.6363205397</v>
       </c>
       <c r="C6" t="n">
-        <v>455441.2428940049</v>
+        <v>455441.2428940052</v>
       </c>
       <c r="D6" t="n">
-        <v>455441.2428940049</v>
+        <v>455441.242894005</v>
       </c>
       <c r="E6" t="n">
-        <v>27262.79245103056</v>
+        <v>26288.20119130876</v>
       </c>
       <c r="F6" t="n">
-        <v>552422.8289279273</v>
+        <v>551448.2376682051</v>
       </c>
       <c r="G6" t="n">
-        <v>552422.8289279272</v>
+        <v>551448.2376682052</v>
       </c>
       <c r="H6" t="n">
-        <v>552422.8289279271</v>
+        <v>551448.2376682045</v>
       </c>
       <c r="I6" t="n">
-        <v>552422.8289279271</v>
+        <v>551448.2376682051</v>
       </c>
       <c r="J6" t="n">
-        <v>375999.6097353339</v>
+        <v>375025.0184756122</v>
       </c>
       <c r="K6" t="n">
-        <v>552422.828927927</v>
+        <v>551448.2376682052</v>
       </c>
       <c r="L6" t="n">
-        <v>552422.828927927</v>
+        <v>551448.2376682053</v>
       </c>
       <c r="M6" t="n">
-        <v>417621.8136940895</v>
+        <v>416647.2224343678</v>
       </c>
       <c r="N6" t="n">
-        <v>552422.8289279272</v>
+        <v>551448.2376682048</v>
       </c>
       <c r="O6" t="n">
-        <v>552422.8289279268</v>
+        <v>551448.2376682051</v>
       </c>
       <c r="P6" t="n">
-        <v>552422.8289279268</v>
+        <v>551448.2376682049</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26752,34 +26752,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>256.8479049937472</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>227.7310905028579</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,10 +27593,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>199.4228284037461</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>101.6183670402995</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>164.602838911874</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27824,16 +27824,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>90.87556095278143</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>111.337581183265</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>10.52067551358147</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.931306069250013</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>44.88450425060874</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-1.620037437533028e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,19 +31120,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>11.76595806653236</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31369,13 +31369,13 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>11.76595806653305</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993508</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31615,13 +31615,13 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
@@ -31843,25 +31843,25 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>394.9841349460421</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>140.4585125981076</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
@@ -32077,28 +32077,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>32.3988806362635</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
@@ -32226,25 +32226,25 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,37 +32314,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>112.8418941815596</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32551,31 +32551,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>353.0329386354462</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>238.8571570853795</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677464</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946997</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32791,34 +32791,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>353.0329386354462</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,16 +33034,16 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>350.0033400926931</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33265,34 +33265,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>8.728808886614246</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,16 +33508,16 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -33526,10 +33526,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,16 +33675,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,37 +33736,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>316.80417669687</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33912,16 +33912,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,28 +33982,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,16 +34149,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,28 +34219,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,34 +34359,34 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927192</v>
       </c>
       <c r="O44" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34450,34 +34450,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
-        <v>371.502690132106</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,13 +35017,13 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>742.9847972062623</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>6.484105183777372</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>409.3303282668783</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>102.4943942860911</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>391.9947629950135</v>
+        <v>239.4656922197792</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>585.3189041590311</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>107.5154450020462</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36375,13 +36375,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q23" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>585.3189041590311</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>633.0716285735083</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
         <v>251.2660748322851</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36682,16 +36682,16 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>698.0040023529133</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>135.3526069248339</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
-        <v>574.9981855047699</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>640.3752065248516</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N39" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>542.1636221095754</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37867,16 +37867,16 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>105.7537211490697</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,16 +38019,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
-        <v>622.768764964391</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3317208.79641216</v>
+        <v>3322148.059261193</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>527944.0659285909</v>
+        <v>569957.1168952695</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8468878.828310512</v>
+        <v>8468878.82831051</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>178.9687239363108</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>156.9362650270477</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498675</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.72683757586857</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>123.6064608052457</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -913,7 +913,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>159.3199338524832</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>60.46179076613092</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>16.889865504349</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>174.9442930587127</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>163.8950372953901</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>270.7773459850756</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,13 +1296,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.31590541686235</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>101.7806877295495</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>139.2940295350192</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>175.8789209817675</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V16" t="n">
-        <v>170.4824349897576</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>254.6368400836692</v>
+        <v>96.84207451769328</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056515</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>283.3580910135614</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417128</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>26.15603929387831</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185877</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>161.1706059301398</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>5.562624396424693</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1485.892406545185</v>
+        <v>982.8165910026955</v>
       </c>
       <c r="C2" t="n">
-        <v>1116.929889604774</v>
+        <v>613.8540740622839</v>
       </c>
       <c r="D2" t="n">
-        <v>758.6641909980233</v>
+        <v>255.5883754555334</v>
       </c>
       <c r="E2" t="n">
-        <v>372.875938399779</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>365.9304376505756</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X2" t="n">
-        <v>1485.892406545185</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y2" t="n">
-        <v>1485.892406545185</v>
+        <v>1369.416431066817</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4427,25 +4427,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.7988452409105</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
         <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,43 +4497,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064343</v>
+        <v>603.2739732920446</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064343</v>
+        <v>603.2739732920446</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064343</v>
+        <v>382.4813941485145</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>962.9693282917585</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C5" t="n">
-        <v>594.0068113513469</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D5" t="n">
-        <v>235.7411127445964</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E5" t="n">
-        <v>235.7411127445964</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>228.7956119953929</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>214.8722079339838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592772</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.708500331692</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y5" t="n">
-        <v>1349.56916835588</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4667,28 +4667,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.7691122461817</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064343</v>
+        <v>711.0685140000211</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064343</v>
+        <v>711.0685140000211</v>
       </c>
       <c r="U7" t="n">
-        <v>551.4175770764215</v>
+        <v>711.0685140000211</v>
       </c>
       <c r="V7" t="n">
-        <v>551.4175770764215</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W7" t="n">
-        <v>551.4175770764215</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X7" t="n">
-        <v>551.4175770764215</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y7" t="n">
-        <v>551.4175770764215</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2476.569858826099</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4819,37 +4819,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2476.569858826099</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2476.569858826099</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2476.569858826099</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2476.569858826099</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2476.569858826099</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2476.569858826099</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>2476.569858826099</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761945</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359519</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E10" t="n">
-        <v>79.51460345355875</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="11">
@@ -5041,10 +5041,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,13 +5053,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5068,25 +5068,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5120,19 +5120,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>388.8958536704856</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>618.8589595388348</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M12" t="n">
-        <v>1387.227105931296</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N12" t="n">
-        <v>2122.782055165496</v>
+        <v>2025.317482043085</v>
       </c>
       <c r="O12" t="n">
         <v>2371.535469249458</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>545.8631874464246</v>
+        <v>406.8543143225556</v>
       </c>
       <c r="C13" t="n">
-        <v>376.9270045185177</v>
+        <v>237.9181313946487</v>
       </c>
       <c r="D13" t="n">
-        <v>376.9270045185177</v>
+        <v>237.9181313946487</v>
       </c>
       <c r="E13" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5232,19 +5232,19 @@
         <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V13" t="n">
-        <v>1133.156678913841</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W13" t="n">
-        <v>1133.156678913841</v>
+        <v>809.2953582963255</v>
       </c>
       <c r="X13" t="n">
-        <v>905.1671280158234</v>
+        <v>809.2953582963255</v>
       </c>
       <c r="Y13" t="n">
-        <v>727.5116522766643</v>
+        <v>588.5027791527954</v>
       </c>
     </row>
     <row r="14">
@@ -5278,25 +5278,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5363,19 +5363,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="L15" t="n">
-        <v>97.21709146028584</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M15" t="n">
-        <v>865.5852378527472</v>
+        <v>1095.548343721096</v>
       </c>
       <c r="N15" t="n">
-        <v>1669.996816116898</v>
+        <v>1440.068999358714</v>
       </c>
       <c r="O15" t="n">
-        <v>2339.460577419557</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P15" t="n">
-        <v>2522.104055032908</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.2811958984813</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5469,19 +5469,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V16" t="n">
-        <v>1326.711790770268</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W16" t="n">
-        <v>1326.711790770268</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X16" t="n">
-        <v>1098.722239872251</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>877.929660728721</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5497,19 +5497,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5518,7 +5518,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5530,7 +5530,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899127</v>
@@ -5597,22 +5597,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>334.2881267578673</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>334.2881267578673</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M18" t="n">
-        <v>334.2881267578673</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="N18" t="n">
-        <v>1138.699705022018</v>
+        <v>1312.518938568949</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1981.982699871608</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2502.283321607356</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5752,34 +5752,34 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5834,16 +5834,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>802.0403666355641</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>1570.408513028025</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
-        <v>2374.820091292176</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
         <v>2623.573505376138</v>
@@ -5968,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6071,16 +6071,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>802.0403666355641</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>1570.408513028025</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>2374.820091292176</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
         <v>2623.573505376138</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6180,19 +6180,19 @@
         <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>930.7122276578364</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>930.7122276578364</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>641.2950576208757</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>413.3055067228584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,52 +6205,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6302,19 +6302,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1890.372576454149</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,10 +6448,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6460,13 +6460,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,16 +6481,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,10 +6539,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
         <v>508.1073603047985</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6663,10 +6663,10 @@
         <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1212.69597660481</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>958.0114883989231</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>668.5943183619626</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>668.5943183619626</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
         <v>904.3190116155888</v>
@@ -6940,25 +6940,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7016,16 +7016,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>1890.372576454149</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247858</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U37" t="n">
-        <v>675.007103038344</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>648.5868613273558</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>359.1696912903951</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>359.1696912903951</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7177,25 +7177,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
@@ -7262,10 +7262,10 @@
         <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>1819.161927111988</v>
+        <v>1149.698165809328</v>
       </c>
       <c r="N39" t="n">
-        <v>2623.573505376138</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O39" t="n">
         <v>2623.573505376138</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7356,22 +7356,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X40" t="n">
         <v>97.21709146028587</v>
@@ -7411,28 +7411,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7490,16 +7490,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>1890.372576454149</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N42" t="n">
         <v>2623.573505376138</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="44">
@@ -7648,7 +7648,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514082</v>
@@ -7727,16 +7727,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>1890.372576454149</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N45" t="n">
         <v>2623.573505376138</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>102.8359039819269</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>102.8359039819269</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>102.8359039819269</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>874.9271131227918</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>620.2426249169049</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>330.8254548799443</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>102.8359039819269</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>102.8359039819269</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -9011,7 +9011,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9494,7 +9494,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -9731,7 +9731,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10910,13 +10910,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>170.107504374181</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -10925,7 +10925,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>7.139933111549936</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>42.7057323703273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V16" t="n">
-        <v>81.65520833407035</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -24372,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24420,10 +24420,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>31.60051231490817</v>
+        <v>189.3952778808841</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338568</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>2.87926138501598</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25329,10 +25329,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>225.9816040299497</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25836,16 +25836,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>90.9670373936882</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>140.8713382501445</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147616</v>
       </c>
     </row>
     <row r="6">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147616</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147616</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380336</v>
+      </c>
+      <c r="C2" t="n">
+        <v>677359.4601380338</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380334</v>
-      </c>
-      <c r="C2" t="n">
-        <v>677359.4601380337</v>
-      </c>
-      <c r="D2" t="n">
-        <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
         <v>645197.9485672191</v>
       </c>
       <c r="F2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645197.9485672195</v>
+      </c>
+      <c r="H2" t="n">
         <v>645197.9485672192</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645197.9485672192</v>
+      </c>
+      <c r="L2" t="n">
         <v>645197.9485672193</v>
       </c>
-      <c r="H2" t="n">
-        <v>645197.9485672186</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
+        <v>645197.9485672195</v>
+      </c>
+      <c r="N2" t="n">
         <v>645197.9485672192</v>
       </c>
-      <c r="J2" t="n">
-        <v>645197.9485672193</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645197.9485672193</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
+        <v>645197.9485672195</v>
+      </c>
+      <c r="P2" t="n">
         <v>645197.9485672194</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645197.9485672191</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645197.948567219</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645197.9485672192</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645197.9485672191</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>139059.1391806191</v>
+      </c>
+      <c r="C4" t="n">
+        <v>139059.1391806191</v>
+      </c>
+      <c r="D4" t="n">
         <v>139059.139180619</v>
       </c>
-      <c r="C4" t="n">
-        <v>139059.139180619</v>
-      </c>
-      <c r="D4" t="n">
-        <v>139059.1391806191</v>
-      </c>
       <c r="E4" t="n">
-        <v>787.7936905759104</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758695</v>
@@ -26441,16 +26441,16 @@
         <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758216</v>
       </c>
       <c r="L4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905757959</v>
+        <v>787.7936905758081</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758695</v>
@@ -26469,37 +26469,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134526.6363205397</v>
+        <v>-134526.6363205394</v>
       </c>
       <c r="C6" t="n">
-        <v>455441.2428940052</v>
+        <v>455441.2428940054</v>
       </c>
       <c r="D6" t="n">
-        <v>455441.242894005</v>
+        <v>455441.2428940046</v>
       </c>
       <c r="E6" t="n">
-        <v>26288.20119130876</v>
+        <v>27165.3333250585</v>
       </c>
       <c r="F6" t="n">
-        <v>551448.2376682051</v>
+        <v>552325.3698019548</v>
       </c>
       <c r="G6" t="n">
-        <v>551448.2376682052</v>
+        <v>552325.3698019549</v>
       </c>
       <c r="H6" t="n">
-        <v>551448.2376682045</v>
+        <v>552325.3698019546</v>
       </c>
       <c r="I6" t="n">
-        <v>551448.2376682051</v>
+        <v>552325.3698019548</v>
       </c>
       <c r="J6" t="n">
-        <v>375025.0184756122</v>
+        <v>375902.1506093618</v>
       </c>
       <c r="K6" t="n">
-        <v>551448.2376682052</v>
+        <v>552325.3698019546</v>
       </c>
       <c r="L6" t="n">
-        <v>551448.2376682053</v>
+        <v>552325.3698019547</v>
       </c>
       <c r="M6" t="n">
-        <v>416647.2224343678</v>
+        <v>417524.3545681177</v>
       </c>
       <c r="N6" t="n">
-        <v>551448.2376682048</v>
+        <v>552325.3698019546</v>
       </c>
       <c r="O6" t="n">
-        <v>551448.2376682051</v>
+        <v>552325.3698019549</v>
       </c>
       <c r="P6" t="n">
-        <v>551448.2376682049</v>
+        <v>552325.3698019548</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>540.9263704990173</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545559</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>540.9263704990175</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>202.961646135951</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>256.8479049937472</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.1051426060687</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>162.9165375313453</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>164.602838911874</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>190.7623767421584</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27824,16 +27824,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>195.2556734456699</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>111.337581183265</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>10.52067551358147</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>98.95375469339348</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>120.1051426060689</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>123.9289676594877</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-1.350599632132798e-12</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-1.620037437533028e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31375,7 +31375,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>86.43447689993508</v>
+        <v>162.4518126576415</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31518,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>91.88325107529209</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392695</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -31849,13 +31849,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>394.9841349460421</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>98.44906376001131</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31867,10 +31867,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,16 +32016,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32086,28 +32086,28 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>348.5413249337224</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>32.3988806362635</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,25 +32226,25 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32317,7 +32317,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>112.8418941815596</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -32326,7 +32326,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32335,16 +32335,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>52.41982349035656</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32554,16 +32554,16 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>353.0329386354462</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32578,10 +32578,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946997</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32791,16 +32791,16 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>353.0329386354462</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -32815,10 +32815,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>392.6063366508803</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33052,10 +33052,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33271,7 +33271,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
         <v>392.6063366508803</v>
@@ -33289,10 +33289,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33508,7 +33508,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
         <v>392.6063366508803</v>
@@ -33526,10 +33526,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,25 +33648,25 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304447</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,16 +33675,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>392.6063366508803</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33760,13 +33760,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,16 +33912,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33982,13 +33982,13 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>380.6284621420188</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -33997,13 +33997,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,16 +34149,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>392.6063366508803</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34237,10 +34237,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,16 +34377,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927192</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>392.6063366508803</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34474,10 +34474,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,7 +35023,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>126.6237980382196</v>
@@ -35497,13 +35497,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>742.9847972062623</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>349.7151385922964</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35667,10 +35667,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>599.8073997660075</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>102.4943942860911</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>239.4656922197792</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35974,16 +35974,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>122.5153371401841</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>585.3189041590311</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36375,13 +36375,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,19 +36439,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>585.3189041590311</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36682,10 +36682,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>740.6069989111005</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,7 +36919,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
         <v>740.6069989111005</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,7 +37156,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
         <v>740.6069989111005</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109079</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37393,10 +37393,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>740.6069989111005</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,13 +37630,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>704.1994919700004</v>
+        <v>27.97347045216271</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37867,10 +37867,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>740.6069989111005</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38104,10 +38104,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>740.6069989111005</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
